--- a/4.Checklists/2.Mobile App.xlsx
+++ b/4.Checklists/2.Mobile App.xlsx
@@ -95,9 +95,6 @@
     <t>Installation and running</t>
   </si>
   <si>
-    <t>App: Megogo ver.4.40 Device: Samsung Galaxy S21FE Android version: 12</t>
-  </si>
-  <si>
     <t>Check</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>Minimizing and expanding</t>
+  </si>
+  <si>
+    <t>App: Megogo ver. 4.40 Device: Samsung Galaxy S21FE Android version: 12</t>
   </si>
 </sst>
 </file>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="73.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B1" s="17"/>
       <c r="F1" s="13"/>
@@ -580,10 +580,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -591,7 +591,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -599,7 +599,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -607,7 +607,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -615,7 +615,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -626,10 +626,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -645,7 +645,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -664,10 +664,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -675,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -683,7 +683,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -699,15 +699,15 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -715,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -723,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -734,10 +734,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="13"/>
     </row>
@@ -778,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -792,15 +792,15 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
